--- a/balance_machine_equivalent_loads_template.xlsx
+++ b/balance_machine_equivalent_loads_template.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matthew.cox\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\COX\Scripts\Machine-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61042C60-F0CE-49C7-B649-E29540A7279D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A37F2A-3FF1-45A0-893F-38EA96323D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23040" yWindow="0" windowWidth="23040" windowHeight="25320" xr2:uid="{F047320D-890E-4B6E-8EED-E1FD349A3400}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" xr2:uid="{F047320D-890E-4B6E-8EED-E1FD349A3400}"/>
   </bookViews>
   <sheets>
-    <sheet name="BI.11.7k.RC01" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Template" sheetId="2" r:id="rId1"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
     <definedName name="a">#REF!</definedName>
@@ -83,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="57">
   <si>
     <t>Equivalent Load &amp; Catman cycle counting template</t>
   </si>
@@ -181,51 +180,13 @@
     <t>Tonnage Scale Factor</t>
   </si>
   <si>
-    <t>Design F Load</t>
-  </si>
-  <si>
-    <t>Cf.F</t>
-  </si>
-  <si>
     <t>Design Cycles</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">5. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Equivalent machine load</t>
-    </r>
   </si>
   <si>
     <t>Equivalent Cycles</t>
   </si>
   <si>
     <t>Equivalent Cu.U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6. Cycle Counting Plot </t>
-  </si>
-  <si>
-    <t>DESIGN_LOAD</t>
-  </si>
-  <si>
-    <t>EQUIVALENT_LOAD</t>
   </si>
   <si>
     <t xml:space="preserve">7. Sanity check of damage </t>
@@ -321,21 +282,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1d. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Document Design Load and Cycles</t>
-    </r>
-  </si>
-  <si>
     <t>2. Paste Catman Rainflow Range-Mean Computation Output</t>
   </si>
   <si>
@@ -346,6 +292,71 @@
   </si>
   <si>
     <t>Note: Select all cells within the below solid border for load/damage histogram plotting</t>
+  </si>
+  <si>
+    <t>Design Load</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. Determine Equivalent Load </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(and document some important info)</t>
+    </r>
+  </si>
+  <si>
+    <t>Fatigue Factor</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5a. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Document Design Loads / Cycles</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">5b. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Equivalent machine load</t>
+    </r>
+  </si>
+  <si>
+    <t>Fatigue Load</t>
   </si>
 </sst>
 </file>
@@ -751,7 +762,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -835,38 +846,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -877,6 +871,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="EDC - Input" xfId="3" xr:uid="{9428F57A-B697-4240-A86A-8187BE10299C}"/>
@@ -1688,10 +1697,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A43A00E-6A1C-409C-8F01-F5BA1841CDB7}">
   <sheetPr codeName="Sheet34"/>
-  <dimension ref="A1:CE322"/>
+  <dimension ref="A1:CJ322"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1730,15 +1739,15 @@
     <col min="130" max="133" width="5.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:88" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="3" spans="1:82" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:88" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>2</v>
@@ -1749,19 +1758,25 @@
       <c r="Q3" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:82" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="CJ3" s="61" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="66" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:82" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I4" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="CJ4" s="61">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1784,21 +1799,23 @@
       <c r="N5" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="CJ5" s="61">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:88" x14ac:dyDescent="0.3">
       <c r="I6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="48" t="s">
+      <c r="J6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="48" t="s">
+      <c r="K6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="48" t="s">
+      <c r="L6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="47"/>
       <c r="N6" s="12"/>
       <c r="Q6" s="7" t="s">
         <v>8</v>
@@ -2062,41 +2079,42 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="CJ6" s="61">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:88" x14ac:dyDescent="0.3">
       <c r="I7" s="10">
         <v>0</v>
       </c>
-      <c r="J7" s="47">
-        <v>0</v>
-      </c>
-      <c r="K7" s="49">
-        <v>0</v>
-      </c>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="13">
+        <v>0</v>
+      </c>
       <c r="N7" s="12"/>
       <c r="Q7" s="10"/>
       <c r="CD7" s="12"/>
     </row>
-    <row r="8" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I8" s="10" cm="1">
         <f t="array" ref="I8:I71">TRANSPOSE(S6:CD6)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="47" cm="1">
+      <c r="J8" cm="1">
         <f t="array" ref="J8:J71">TRANSPOSE(S8:CD8)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="49">
-        <f>J8*$C$26</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="47">
+      <c r="K8" s="13">
+        <f>J8*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L8">
         <f>I8^3</f>
         <v>0</v>
       </c>
-      <c r="M8" s="47">
+      <c r="M8">
         <f>L8*K8</f>
         <v>0</v>
       </c>
@@ -2367,168 +2385,193 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:88" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
         <v>17</v>
       </c>
       <c r="I9" s="10">
         <v>0</v>
       </c>
-      <c r="J9" s="47">
-        <v>0</v>
-      </c>
-      <c r="K9" s="49">
-        <f t="shared" ref="K9:K71" si="2">J9*$C$26</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="47">
-        <f t="shared" ref="L9:L71" si="3">I9^3</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="47">
-        <f t="shared" ref="M9:M71" si="4">L9*K9</f>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="13">
+        <f>J9*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ref="L9:L71" si="2">I9^3</f>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" ref="M9:M71" si="3">L9*K9</f>
         <v>0</v>
       </c>
       <c r="N9" s="12">
-        <f t="shared" ref="N9:N71" si="5">(K9/50000000)*(I9/23)^3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:82" x14ac:dyDescent="0.3">
+        <f t="shared" ref="N9:N71" si="4">(K9/50000000)*(I9/23)^3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10"/>
       <c r="I10" s="10">
         <v>0</v>
       </c>
-      <c r="J10" s="47">
-        <v>0</v>
-      </c>
-      <c r="K10" s="49">
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="13">
+        <f>J10*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L10" s="47">
+      <c r="M10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="47">
+      <c r="N10" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N10" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="O10" s="13"/>
     </row>
-    <row r="11" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="B11"/>
+    <row r="11" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="B11" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
       <c r="I11" s="10">
         <v>0</v>
       </c>
-      <c r="J11" s="47">
-        <v>0</v>
-      </c>
-      <c r="K11" s="49">
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="13">
+        <f>J11*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L11" s="47">
+      <c r="M11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M11" s="47">
+      <c r="N11" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P11" s="18"/>
       <c r="Q11" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="B12"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="B12" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="22">
+        <v>100000</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="I12" s="10">
         <v>0</v>
       </c>
-      <c r="J12" s="47">
-        <v>0</v>
-      </c>
-      <c r="K12" s="49">
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="13">
+        <f>J12*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L12" s="47">
+      <c r="M12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M12" s="47">
+      <c r="N12" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N12" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13"/>
+    </row>
+    <row r="13" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="B13" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="23">
+        <v>10600</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="I13" s="10">
         <v>0</v>
       </c>
-      <c r="J13" s="47">
-        <v>0</v>
-      </c>
-      <c r="K13" s="49">
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="13">
+        <f>J13*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L13" s="47">
+      <c r="M13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M13" s="47">
+      <c r="N13" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N13" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="S13" s="6"/>
     </row>
-    <row r="14" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
+    <row r="14" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="25">
+        <f>C12*C13</f>
+        <v>1060000000</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>25</v>
+      </c>
       <c r="I14" s="10">
         <v>0</v>
       </c>
-      <c r="J14" s="47">
-        <v>0</v>
-      </c>
-      <c r="K14" s="49">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" s="13">
+        <f>J14*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L14" s="47">
+      <c r="M14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M14" s="47">
+      <c r="N14" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N14" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="45" t="s">
+      <c r="R14" s="42" t="s">
         <v>18</v>
       </c>
       <c r="S14" s="20"/>
@@ -2596,43 +2639,34 @@
       <c r="CC14" s="20"/>
       <c r="CD14" s="20"/>
     </row>
-    <row r="15" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="B15" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="22">
-        <v>100000</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>20</v>
-      </c>
+    <row r="15" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I15" s="10">
         <v>0</v>
       </c>
-      <c r="J15" s="47">
-        <v>0</v>
-      </c>
-      <c r="K15" s="49">
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <f>J15*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L15" s="47">
+      <c r="M15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M15" s="47">
+      <c r="N15" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N15" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="45" t="s">
+      <c r="Q15" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="R15" s="46" t="s">
-        <v>54</v>
+      <c r="R15" s="43" t="s">
+        <v>47</v>
       </c>
       <c r="S15" s="8"/>
       <c r="T15" s="8"/>
@@ -2699,100 +2733,105 @@
       <c r="CC15" s="8"/>
       <c r="CD15" s="9"/>
     </row>
-    <row r="16" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="23">
-        <v>10600</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>22</v>
-      </c>
+    <row r="16" spans="1:88" x14ac:dyDescent="0.3">
+      <c r="B16" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
       <c r="I16" s="10">
         <v>0</v>
       </c>
-      <c r="J16" s="47">
-        <v>0</v>
-      </c>
-      <c r="K16" s="49">
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" s="13">
+        <f>J16*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L16" s="47">
+      <c r="M16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M16" s="47">
+      <c r="N16" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q16" s="20"/>
       <c r="R16" s="10"/>
       <c r="CD16" s="12"/>
     </row>
-    <row r="17" spans="2:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="25">
-        <f>C15*C16</f>
-        <v>1060000000</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>25</v>
+    <row r="17" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B17" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="22">
+        <v>6706</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>27</v>
       </c>
       <c r="I17" s="10">
         <v>0</v>
       </c>
-      <c r="J17" s="47">
-        <v>0</v>
-      </c>
-      <c r="K17" s="49">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" s="13">
+        <f>J17*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L17" s="47">
+      <c r="M17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M17" s="47">
+      <c r="N17" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q17" s="20"/>
       <c r="R17" s="10"/>
       <c r="CD17" s="12"/>
     </row>
-    <row r="18" spans="2:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B18" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="27">
+        <f>C17/(60*60)</f>
+        <v>1.8627777777777779</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="I18" s="10">
         <v>0</v>
       </c>
-      <c r="J18" s="47">
-        <v>0</v>
-      </c>
-      <c r="K18" s="49">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" s="13">
+        <f>J18*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L18" s="47">
+      <c r="M18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M18" s="47">
+      <c r="N18" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q18" s="20"/>
@@ -2800,104 +2839,99 @@
       <c r="CD18" s="12"/>
     </row>
     <row r="19" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B19" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="22">
+        <v>6994</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="I19" s="10">
         <v>0</v>
       </c>
-      <c r="J19" s="47">
-        <v>0</v>
-      </c>
-      <c r="K19" s="49">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" s="13">
+        <f>J19*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L19" s="47">
+      <c r="M19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M19" s="47">
+      <c r="N19" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q19" s="20"/>
       <c r="R19" s="10"/>
       <c r="CD19" s="12"/>
     </row>
-    <row r="20" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B20" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="22">
-        <v>6706</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>27</v>
+    <row r="20" spans="2:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="28">
+        <f>C18*C19</f>
+        <v>13028.267777777779</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="I20" s="10">
         <v>0</v>
       </c>
-      <c r="J20" s="47">
-        <v>0</v>
-      </c>
-      <c r="K20" s="49">
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" s="13">
+        <f>J20*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L20" s="47">
+      <c r="M20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M20" s="47">
+      <c r="N20" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q20" s="20"/>
       <c r="R20" s="10"/>
       <c r="CD20" s="12"/>
     </row>
-    <row r="21" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B21" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="27">
-        <f>C20/(60*60)</f>
-        <v>1.8627777777777779</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>28</v>
-      </c>
+    <row r="21" spans="2:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I21" s="10">
         <v>0</v>
       </c>
-      <c r="J21" s="47">
-        <v>0</v>
-      </c>
-      <c r="K21" s="49">
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" s="13">
+        <f>J21*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L21" s="47">
+      <c r="M21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M21" s="47">
+      <c r="N21" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q21" s="20"/>
@@ -2905,35 +2939,31 @@
       <c r="CD21" s="12"/>
     </row>
     <row r="22" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B22" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="22">
-        <v>6994</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>22</v>
-      </c>
+      <c r="B22" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
       <c r="I22" s="10">
         <v>0</v>
       </c>
-      <c r="J22" s="47">
-        <v>0</v>
-      </c>
-      <c r="K22" s="49">
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" s="13">
+        <f>J22*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L22" s="47">
+      <c r="M22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M22" s="47">
+      <c r="N22" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q22" s="20"/>
@@ -2942,62 +2972,60 @@
     </row>
     <row r="23" spans="2:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="28">
-        <f>C21*C22</f>
-        <v>13028.267777777779</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>25</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C23" s="29">
+        <f>C14/C20</f>
+        <v>81361.545378122653</v>
+      </c>
+      <c r="D23" s="16"/>
       <c r="I23" s="10">
         <v>0</v>
       </c>
-      <c r="J23" s="47">
-        <v>0</v>
-      </c>
-      <c r="K23" s="49">
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" s="13">
+        <f>J23*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L23" s="47">
+      <c r="M23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M23" s="47">
+      <c r="N23" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N23" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q23" s="20"/>
       <c r="R23" s="10"/>
       <c r="CD23" s="12"/>
     </row>
-    <row r="24" spans="2:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:82" x14ac:dyDescent="0.3">
       <c r="I24" s="10">
         <v>0</v>
       </c>
-      <c r="J24" s="47">
-        <v>0</v>
-      </c>
-      <c r="K24" s="49">
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" s="13">
+        <f>J24*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L24" s="47">
+      <c r="M24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M24" s="47">
+      <c r="N24" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N24" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q24" s="20"/>
@@ -3005,94 +3033,81 @@
       <c r="CD24" s="12"/>
     </row>
     <row r="25" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B25" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
       <c r="I25" s="10">
         <v>0</v>
       </c>
-      <c r="J25" s="47">
-        <v>0</v>
-      </c>
-      <c r="K25" s="49">
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" s="13">
+        <f>J25*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L25" s="47">
+      <c r="M25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M25" s="47">
+      <c r="N25" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N25" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q25" s="20"/>
       <c r="R25" s="10"/>
       <c r="CD25" s="12"/>
     </row>
-    <row r="26" spans="2:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="29">
-        <f>C17/C23</f>
-        <v>81361.545378122653</v>
-      </c>
-      <c r="D26" s="16"/>
+    <row r="26" spans="2:82" x14ac:dyDescent="0.3">
       <c r="I26" s="10">
         <v>0</v>
       </c>
-      <c r="J26" s="47">
-        <v>0</v>
-      </c>
-      <c r="K26" s="49">
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" s="13">
+        <f>J26*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L26" s="47">
+      <c r="M26">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M26" s="47">
+      <c r="N26" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N26" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q26" s="20"/>
       <c r="R26" s="10"/>
       <c r="CD26" s="12"/>
     </row>
-    <row r="27" spans="2:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:82" x14ac:dyDescent="0.3">
       <c r="C27" s="30"/>
       <c r="I27" s="10">
         <v>0</v>
       </c>
-      <c r="J27" s="47">
-        <v>0</v>
-      </c>
-      <c r="K27" s="49">
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" s="13">
+        <f>J27*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L27" s="47">
+      <c r="M27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M27" s="47">
+      <c r="N27" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N27" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q27" s="20"/>
@@ -3100,31 +3115,26 @@
       <c r="CD27" s="12"/>
     </row>
     <row r="28" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B28" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
       <c r="I28" s="10">
         <v>0</v>
       </c>
-      <c r="J28" s="47">
-        <v>0</v>
-      </c>
-      <c r="K28" s="49">
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" s="13">
+        <f>J28*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L28" s="47">
+      <c r="M28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M28" s="47">
+      <c r="N28" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N28" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q28" s="20"/>
@@ -3132,108 +3142,88 @@
       <c r="CD28" s="12"/>
     </row>
     <row r="29" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B29" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="32">
-        <f>51.5*9.81</f>
-        <v>505.21500000000003</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>14</v>
+      <c r="B29" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="I29" s="10">
         <v>0</v>
       </c>
-      <c r="J29" s="47">
-        <v>0</v>
-      </c>
-      <c r="K29" s="49">
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" s="13">
+        <f>J29*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L29" s="47">
+      <c r="M29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M29" s="47">
+      <c r="N29" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N29" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q29" s="20"/>
       <c r="R29" s="10"/>
       <c r="CD29" s="12"/>
     </row>
-    <row r="30" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B30" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="27">
-        <f>0.8*C29</f>
-        <v>404.17200000000003</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>14</v>
-      </c>
+    <row r="30" spans="2:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I30" s="10">
         <v>0</v>
       </c>
-      <c r="J30" s="47">
-        <v>0</v>
-      </c>
-      <c r="K30" s="49">
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" s="13">
+        <f>J30*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L30" s="47">
+      <c r="M30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M30" s="47">
+      <c r="N30" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q30" s="20"/>
       <c r="R30" s="10"/>
       <c r="CD30" s="12"/>
     </row>
-    <row r="31" spans="2:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="33">
-        <f>1446608*2</f>
-        <v>2893216</v>
-      </c>
-      <c r="D31" s="16"/>
+    <row r="31" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B31" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
       <c r="I31" s="10">
         <v>0</v>
       </c>
-      <c r="J31" s="47">
-        <v>0</v>
-      </c>
-      <c r="K31" s="49">
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" s="13">
+        <f>J31*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L31" s="47">
+      <c r="M31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M31" s="47">
+      <c r="N31" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q31" s="20"/>
@@ -3241,26 +3231,36 @@
       <c r="CD31" s="12"/>
     </row>
     <row r="32" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B32" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="32">
+        <f>51.5*9.81</f>
+        <v>505.21500000000003</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="I32" s="10">
         <v>0</v>
       </c>
-      <c r="J32" s="47">
-        <v>0</v>
-      </c>
-      <c r="K32" s="49">
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" s="13">
+        <f>J32*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L32" s="47">
+      <c r="M32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M32" s="47">
+      <c r="N32" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N32" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q32" s="20"/>
@@ -3268,26 +3268,33 @@
       <c r="CD32" s="12"/>
     </row>
     <row r="33" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="B33" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="D33" s="12"/>
       <c r="I33" s="10">
         <v>0</v>
       </c>
-      <c r="J33" s="47">
-        <v>0</v>
-      </c>
-      <c r="K33" s="49">
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" s="13">
+        <f>J33*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L33" s="47">
+      <c r="M33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M33" s="47">
+      <c r="N33" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N33" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q33" s="20"/>
@@ -3295,53 +3302,71 @@
       <c r="CD33" s="12"/>
     </row>
     <row r="34" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="B34" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="27">
+        <f>C32*C33</f>
+        <v>404.17200000000003</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="I34" s="10">
         <v>0</v>
       </c>
-      <c r="J34" s="47">
-        <v>0</v>
-      </c>
-      <c r="K34" s="49">
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" s="13">
+        <f>J34*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L34" s="47">
+      <c r="M34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M34" s="47">
+      <c r="N34" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N34" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q34" s="20"/>
       <c r="R34" s="10"/>
       <c r="CD34" s="12"/>
     </row>
-    <row r="35" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="33">
+        <f>1446608*2</f>
+        <v>2893216</v>
+      </c>
+      <c r="D35" s="16"/>
       <c r="I35" s="10">
         <v>0</v>
       </c>
-      <c r="J35" s="47">
-        <v>0</v>
-      </c>
-      <c r="K35" s="49">
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" s="13">
+        <f>J35*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L35" s="47">
+      <c r="M35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M35" s="47">
+      <c r="N35" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N35" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q35" s="20"/>
@@ -3352,23 +3377,23 @@
       <c r="I36" s="10">
         <v>0</v>
       </c>
-      <c r="J36" s="47">
-        <v>0</v>
-      </c>
-      <c r="K36" s="49">
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" s="13">
+        <f>J36*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L36" s="47">
+      <c r="M36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M36" s="47">
+      <c r="N36" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N36" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O36" s="13"/>
@@ -3378,30 +3403,30 @@
     </row>
     <row r="37" spans="1:82" x14ac:dyDescent="0.3">
       <c r="B37" s="19" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="9"/>
       <c r="I37" s="10">
         <v>0</v>
       </c>
-      <c r="J37" s="47">
-        <v>0</v>
-      </c>
-      <c r="K37" s="49">
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" s="13">
+        <f>J37*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L37" s="47">
+      <c r="M37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M37" s="47">
+      <c r="N37" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N37" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P37" s="18"/>
@@ -3411,33 +3436,33 @@
     </row>
     <row r="38" spans="1:82" x14ac:dyDescent="0.3">
       <c r="B38" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="35">
-        <f>C31</f>
+        <v>33</v>
+      </c>
+      <c r="C38" s="62">
+        <f>C35</f>
         <v>2893216</v>
       </c>
       <c r="D38" s="12"/>
       <c r="I38" s="10">
         <v>0</v>
       </c>
-      <c r="J38" s="47">
-        <v>0</v>
-      </c>
-      <c r="K38" s="49">
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" s="13">
+        <f>J38*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L38" s="47">
+      <c r="M38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M38" s="47">
+      <c r="N38" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N38" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q38" s="20"/>
@@ -3446,7 +3471,7 @@
     </row>
     <row r="39" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C39" s="37">
         <f>(SUM(M8:M71)/C38)^(1/3)</f>
@@ -3458,23 +3483,23 @@
       <c r="I39" s="10">
         <v>0</v>
       </c>
-      <c r="J39" s="47">
-        <v>0</v>
-      </c>
-      <c r="K39" s="49">
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39" s="13">
+        <f>J39*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L39" s="47">
+      <c r="M39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M39" s="47">
+      <c r="N39" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N39" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q39" s="20"/>
@@ -3485,23 +3510,23 @@
       <c r="I40" s="10">
         <v>0</v>
       </c>
-      <c r="J40" s="47">
-        <v>0</v>
-      </c>
-      <c r="K40" s="49">
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" s="13">
+        <f>J40*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L40" s="47">
+      <c r="M40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M40" s="47">
+      <c r="N40" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N40" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q40" s="20"/>
@@ -3510,60 +3535,58 @@
     </row>
     <row r="41" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
+      <c r="B41"/>
       <c r="E41" s="38"/>
       <c r="I41" s="10">
         <v>0</v>
       </c>
-      <c r="J41" s="47">
-        <v>0</v>
-      </c>
-      <c r="K41" s="49">
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" s="13">
+        <f>J41*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L41">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L41" s="47">
+      <c r="M41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M41" s="47">
+      <c r="N41" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N41" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q41" s="20"/>
       <c r="R41" s="10"/>
       <c r="CD41" s="12"/>
     </row>
-    <row r="42" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
+      <c r="B42"/>
       <c r="E42" s="38"/>
       <c r="I42" s="10">
         <v>0</v>
       </c>
-      <c r="J42" s="47">
-        <v>0</v>
-      </c>
-      <c r="K42" s="49">
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" s="13">
+        <f>J42*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L42" s="47">
+      <c r="M42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M42" s="47">
+      <c r="N42" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N42" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q42" s="20"/>
@@ -3571,31 +3594,27 @@
       <c r="CD42" s="12"/>
     </row>
     <row r="43" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="B43" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" s="39"/>
-      <c r="D43" s="40"/>
+      <c r="B43"/>
       <c r="I43" s="10">
         <v>0</v>
       </c>
-      <c r="J43" s="47">
-        <v>0</v>
-      </c>
-      <c r="K43" s="49">
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43" s="13">
+        <f>J43*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L43" s="47">
+      <c r="M43">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M43" s="47">
+      <c r="N43" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N43" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q43" s="20"/>
@@ -3603,71 +3622,57 @@
       <c r="CD43" s="12"/>
     </row>
     <row r="44" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="B44" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="35">
-        <f>C30</f>
-        <v>404.17200000000003</v>
-      </c>
-      <c r="D44" s="12"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="42"/>
+      <c r="B44"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="40"/>
       <c r="I44" s="10">
         <v>0</v>
       </c>
-      <c r="J44" s="47">
-        <v>0</v>
-      </c>
-      <c r="K44" s="49">
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44" s="13">
+        <f>J44*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L44" s="47">
+      <c r="M44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M44" s="47">
+      <c r="N44" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N44" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q44" s="20"/>
       <c r="R44" s="10"/>
       <c r="CD44" s="12"/>
     </row>
-    <row r="45" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" s="43">
-        <f>C39</f>
-        <v>0</v>
-      </c>
-      <c r="D45" s="16"/>
+    <row r="45" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="B45"/>
       <c r="I45" s="10">
         <v>0</v>
       </c>
-      <c r="J45" s="47">
-        <v>0</v>
-      </c>
-      <c r="K45" s="49">
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45" s="13">
+        <f>J45*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L45" s="47">
+      <c r="M45">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M45" s="47">
+      <c r="N45" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N45" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q45" s="20"/>
@@ -3675,26 +3680,27 @@
       <c r="CD45" s="12"/>
     </row>
     <row r="46" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="B46"/>
       <c r="I46" s="10">
         <v>0</v>
       </c>
-      <c r="J46" s="47">
-        <v>0</v>
-      </c>
-      <c r="K46" s="49">
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46" s="13">
+        <f>J46*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L46" s="47">
+      <c r="M46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M46" s="47">
+      <c r="N46" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N46" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q46" s="20"/>
@@ -3702,26 +3708,27 @@
       <c r="CD46" s="12"/>
     </row>
     <row r="47" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="B47"/>
       <c r="I47" s="10">
         <v>0</v>
       </c>
-      <c r="J47" s="47">
-        <v>0</v>
-      </c>
-      <c r="K47" s="49">
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47" s="13">
+        <f>J47*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L47" s="47">
+      <c r="M47">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M47" s="47">
+      <c r="N47" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N47" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q47" s="20"/>
@@ -3733,23 +3740,23 @@
       <c r="I48" s="10">
         <v>0</v>
       </c>
-      <c r="J48" s="47">
-        <v>0</v>
-      </c>
-      <c r="K48" s="49">
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48" s="13">
+        <f>J48*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L48" s="47">
+      <c r="M48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M48" s="47">
+      <c r="N48" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N48" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q48" s="20"/>
@@ -3761,23 +3768,23 @@
       <c r="I49" s="10">
         <v>0</v>
       </c>
-      <c r="J49" s="47">
-        <v>0</v>
-      </c>
-      <c r="K49" s="49">
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49" s="13">
+        <f>J49*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L49">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L49" s="47">
+      <c r="M49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M49" s="47">
+      <c r="N49" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N49" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q49" s="20"/>
@@ -3789,23 +3796,23 @@
       <c r="I50" s="10">
         <v>0</v>
       </c>
-      <c r="J50" s="47">
-        <v>0</v>
-      </c>
-      <c r="K50" s="49">
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50" s="13">
+        <f>J50*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L50" s="47">
+      <c r="M50">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M50" s="47">
+      <c r="N50" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N50" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q50" s="20"/>
@@ -3817,23 +3824,23 @@
       <c r="I51" s="10">
         <v>0</v>
       </c>
-      <c r="J51" s="47">
-        <v>0</v>
-      </c>
-      <c r="K51" s="49">
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51" s="13">
+        <f>J51*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L51" s="47">
+      <c r="M51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M51" s="47">
+      <c r="N51" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N51" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q51" s="20"/>
@@ -3845,23 +3852,23 @@
       <c r="I52" s="10">
         <v>0</v>
       </c>
-      <c r="J52" s="47">
-        <v>0</v>
-      </c>
-      <c r="K52" s="49">
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52" s="13">
+        <f>J52*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L52" s="47">
+      <c r="M52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M52" s="47">
+      <c r="N52" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N52" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q52" s="20"/>
@@ -3873,23 +3880,23 @@
       <c r="I53" s="10">
         <v>0</v>
       </c>
-      <c r="J53" s="47">
-        <v>0</v>
-      </c>
-      <c r="K53" s="49">
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53" s="13">
+        <f>J53*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L53" s="47">
+      <c r="M53">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M53" s="47">
+      <c r="N53" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N53" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q53" s="20"/>
@@ -3901,23 +3908,23 @@
       <c r="I54" s="10">
         <v>0</v>
       </c>
-      <c r="J54" s="47">
-        <v>0</v>
-      </c>
-      <c r="K54" s="49">
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54" s="13">
+        <f>J54*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L54" s="47">
+      <c r="M54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M54" s="47">
+      <c r="N54" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N54" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q54" s="20"/>
@@ -3929,23 +3936,23 @@
       <c r="I55" s="10">
         <v>0</v>
       </c>
-      <c r="J55" s="47">
-        <v>0</v>
-      </c>
-      <c r="K55" s="49">
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55" s="13">
+        <f>J55*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L55" s="47">
+      <c r="M55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M55" s="47">
+      <c r="N55" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N55" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q55" s="20"/>
@@ -3957,23 +3964,23 @@
       <c r="I56" s="10">
         <v>0</v>
       </c>
-      <c r="J56" s="47">
-        <v>0</v>
-      </c>
-      <c r="K56" s="49">
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56" s="13">
+        <f>J56*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L56" s="47">
+      <c r="M56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M56" s="47">
+      <c r="N56" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N56" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q56" s="20"/>
@@ -3985,23 +3992,23 @@
       <c r="I57" s="10">
         <v>0</v>
       </c>
-      <c r="J57" s="47">
-        <v>0</v>
-      </c>
-      <c r="K57" s="49">
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57" s="13">
+        <f>J57*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L57" s="47">
+      <c r="M57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M57" s="47">
+      <c r="N57" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N57" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q57" s="20"/>
@@ -4013,23 +4020,23 @@
       <c r="I58" s="10">
         <v>0</v>
       </c>
-      <c r="J58" s="47">
-        <v>0</v>
-      </c>
-      <c r="K58" s="49">
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58" s="13">
+        <f>J58*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L58">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L58" s="47">
+      <c r="M58">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M58" s="47">
+      <c r="N58" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N58" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q58" s="20"/>
@@ -4041,23 +4048,23 @@
       <c r="I59" s="10">
         <v>0</v>
       </c>
-      <c r="J59" s="47">
-        <v>0</v>
-      </c>
-      <c r="K59" s="49">
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59" s="13">
+        <f>J59*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L59" s="47">
+      <c r="M59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M59" s="47">
+      <c r="N59" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N59" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q59" s="20"/>
@@ -4069,23 +4076,23 @@
       <c r="I60" s="10">
         <v>0</v>
       </c>
-      <c r="J60" s="47">
-        <v>0</v>
-      </c>
-      <c r="K60" s="49">
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60" s="13">
+        <f>J60*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L60" s="47">
+      <c r="M60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M60" s="47">
+      <c r="N60" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N60" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q60" s="20"/>
@@ -4097,23 +4104,23 @@
       <c r="I61" s="10">
         <v>0</v>
       </c>
-      <c r="J61" s="47">
-        <v>0</v>
-      </c>
-      <c r="K61" s="49">
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61" s="13">
+        <f>J61*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L61" s="47">
+      <c r="M61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M61" s="47">
+      <c r="N61" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N61" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q61" s="20"/>
@@ -4125,23 +4132,23 @@
       <c r="I62" s="10">
         <v>0</v>
       </c>
-      <c r="J62" s="47">
-        <v>0</v>
-      </c>
-      <c r="K62" s="49">
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62" s="13">
+        <f>J62*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L62" s="47">
+      <c r="M62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M62" s="47">
+      <c r="N62" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N62" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q62" s="20"/>
@@ -4153,23 +4160,23 @@
       <c r="I63" s="10">
         <v>0</v>
       </c>
-      <c r="J63" s="47">
-        <v>0</v>
-      </c>
-      <c r="K63" s="49">
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63" s="13">
+        <f>J63*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L63" s="47">
+      <c r="M63">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M63" s="47">
+      <c r="N63" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N63" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q63" s="20"/>
@@ -4181,23 +4188,23 @@
       <c r="I64" s="10">
         <v>0</v>
       </c>
-      <c r="J64" s="47">
-        <v>0</v>
-      </c>
-      <c r="K64" s="49">
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64" s="13">
+        <f>J64*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L64">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L64" s="47">
+      <c r="M64">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M64" s="47">
+      <c r="N64" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N64" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q64" s="20"/>
@@ -4209,23 +4216,23 @@
       <c r="I65" s="10">
         <v>0</v>
       </c>
-      <c r="J65" s="47">
-        <v>0</v>
-      </c>
-      <c r="K65" s="49">
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65" s="13">
+        <f>J65*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L65">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L65" s="47">
+      <c r="M65">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M65" s="47">
+      <c r="N65" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N65" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q65" s="20"/>
@@ -4237,23 +4244,23 @@
       <c r="I66" s="10">
         <v>0</v>
       </c>
-      <c r="J66" s="47">
-        <v>0</v>
-      </c>
-      <c r="K66" s="49">
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66" s="13">
+        <f>J66*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L66" s="47">
+      <c r="M66">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M66" s="47">
+      <c r="N66" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N66" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q66" s="20"/>
@@ -4265,23 +4272,23 @@
       <c r="I67" s="10">
         <v>0</v>
       </c>
-      <c r="J67" s="47">
-        <v>0</v>
-      </c>
-      <c r="K67" s="49">
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67" s="13">
+        <f>J67*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L67">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L67" s="47">
+      <c r="M67">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M67" s="47">
+      <c r="N67" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N67" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q67" s="20"/>
@@ -4293,23 +4300,23 @@
       <c r="I68" s="10">
         <v>0</v>
       </c>
-      <c r="J68" s="47">
-        <v>0</v>
-      </c>
-      <c r="K68" s="49">
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68" s="13">
+        <f>J68*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L68" s="47">
+      <c r="M68">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M68" s="47">
+      <c r="N68" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N68" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q68" s="20"/>
@@ -4321,23 +4328,23 @@
       <c r="I69" s="10">
         <v>0</v>
       </c>
-      <c r="J69" s="47">
-        <v>0</v>
-      </c>
-      <c r="K69" s="49">
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69" s="13">
+        <f>J69*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L69" s="47">
+      <c r="M69">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M69" s="47">
+      <c r="N69" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N69" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q69" s="20"/>
@@ -4348,23 +4355,23 @@
       <c r="I70" s="10">
         <v>0</v>
       </c>
-      <c r="J70" s="47">
-        <v>0</v>
-      </c>
-      <c r="K70" s="49">
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70" s="13">
+        <f>J70*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L70">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L70" s="47">
+      <c r="M70">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M70" s="47">
+      <c r="N70" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N70" s="12">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q70" s="20"/>
@@ -4373,7 +4380,7 @@
     </row>
     <row r="71" spans="2:82" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E71" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I71" s="14">
         <v>0</v>
@@ -4381,20 +4388,20 @@
       <c r="J71" s="15">
         <v>0</v>
       </c>
-      <c r="K71" s="44">
+      <c r="K71" s="41">
+        <f>J71*$C$23</f>
+        <v>0</v>
+      </c>
+      <c r="L71" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L71" s="15">
+      <c r="M71" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M71" s="15">
+      <c r="N71" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N71" s="16">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q71" s="20"/>
@@ -4402,20 +4409,16 @@
       <c r="CD71" s="12"/>
     </row>
     <row r="72" spans="2:82" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E72" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="F72" s="51"/>
-      <c r="G72" s="51"/>
-      <c r="H72" s="52"/>
-      <c r="I72" s="47"/>
-      <c r="J72" s="47"/>
-      <c r="K72" s="47"/>
-      <c r="L72" s="47"/>
-      <c r="M72" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="N72" s="57">
+      <c r="E72" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="F72" s="44"/>
+      <c r="G72" s="44"/>
+      <c r="H72" s="45"/>
+      <c r="M72" t="s">
+        <v>37</v>
+      </c>
+      <c r="N72" s="49">
         <f>SUM(N8:N71)</f>
         <v>0</v>
       </c>
@@ -4424,25 +4427,22 @@
       <c r="CD72" s="12"/>
     </row>
     <row r="73" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="E73" s="54"/>
-      <c r="F73" s="55"/>
-      <c r="G73" s="55"/>
-      <c r="H73" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="I73" s="56">
-        <f>C30</f>
+      <c r="E73" s="59"/>
+      <c r="F73" s="47"/>
+      <c r="G73" s="47"/>
+      <c r="H73" t="s">
+        <v>38</v>
+      </c>
+      <c r="I73" s="48">
+        <f>C34</f>
         <v>404.17200000000003</v>
       </c>
-      <c r="J73" s="47"/>
-      <c r="K73" s="49">
-        <f>C31</f>
+      <c r="K73" s="13">
+        <f>C35</f>
         <v>2893216</v>
       </c>
-      <c r="L73" s="47"/>
-      <c r="M73" s="47"/>
-      <c r="N73" s="57">
-        <f t="shared" ref="N73:N74" si="6">(K73/50000000)*(I73/23)^3</f>
+      <c r="N73" s="49">
+        <f t="shared" ref="N73:N74" si="5">(K73/50000000)*(I73/23)^3</f>
         <v>313.99737398529436</v>
       </c>
       <c r="Q73" s="20"/>
@@ -4450,25 +4450,25 @@
       <c r="CD73" s="12"/>
     </row>
     <row r="74" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="E74" s="58"/>
-      <c r="F74" s="59"/>
-      <c r="G74" s="59"/>
-      <c r="H74" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="I74" s="60">
+      <c r="E74" s="60"/>
+      <c r="F74" s="50"/>
+      <c r="G74" s="50"/>
+      <c r="H74" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="I74" s="51">
         <f>C39</f>
         <v>0</v>
       </c>
-      <c r="J74" s="60"/>
-      <c r="K74" s="61">
+      <c r="J74" s="51"/>
+      <c r="K74" s="52">
         <f>C38</f>
         <v>2893216</v>
       </c>
-      <c r="L74" s="60"/>
-      <c r="M74" s="60"/>
-      <c r="N74" s="62">
-        <f t="shared" si="6"/>
+      <c r="L74" s="51"/>
+      <c r="M74" s="51"/>
+      <c r="N74" s="53">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q74" s="20"/>
@@ -4576,7 +4576,7 @@
         <v>1</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I84" s="6" t="s">
         <v>3</v>
@@ -4592,8 +4592,8 @@
       <c r="C85" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I85" s="66" t="s">
-        <v>56</v>
+      <c r="I85" s="57" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="86" spans="1:82" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
@@ -4645,255 +4645,255 @@
         <v>0</v>
       </c>
       <c r="T87" s="8">
-        <f t="shared" ref="T87:CD87" si="7">T96</f>
+        <f t="shared" ref="T87:CD87" si="6">T96</f>
         <v>0</v>
       </c>
       <c r="U87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AH87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AJ87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AK87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AN87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AO87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AP87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AQ87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AR87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AS87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AT87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AU87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AV87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AW87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AX87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AY87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BA87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BB87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BC87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BD87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BE87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BG87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BH87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BI87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BJ87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BK87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BL87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BM87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BN87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BO87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BP87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BQ87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BR87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BS87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BT87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BU87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BV87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BW87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BX87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BY87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BZ87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CA87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CB87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CC87" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CD87" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4947,255 +4947,255 @@
         <v>0</v>
       </c>
       <c r="T89" s="15">
-        <f t="shared" ref="T89:CD89" si="8">SUM(T97:T160)</f>
+        <f t="shared" ref="T89:CD89" si="7">SUM(T97:T160)</f>
         <v>0</v>
       </c>
       <c r="U89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AH89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AO89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AP89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AQ89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AR89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AS89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AT89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AU89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AV89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AW89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AX89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AY89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AZ89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BA89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BB89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BC89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BD89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BE89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BF89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BG89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BH89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BI89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BJ89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BK89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BL89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BM89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BN89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BO89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BP89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BQ89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BR89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BS89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BT89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BU89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BV89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BW89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BX89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BY89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BZ89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CA89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CB89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CC89" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CD89" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5210,23 +5210,23 @@
         <v>0</v>
       </c>
       <c r="K90" s="13">
-        <f t="shared" ref="K90:K152" si="9">J90*$C$107</f>
+        <f t="shared" ref="K90:K152" si="8">J90*$C$107</f>
         <v>0</v>
       </c>
       <c r="L90">
-        <f t="shared" ref="L90:L152" si="10">I90^3</f>
+        <f t="shared" ref="L90:L152" si="9">I90^3</f>
         <v>0</v>
       </c>
       <c r="M90">
-        <f t="shared" ref="M90:M152" si="11">L90*K90</f>
+        <f t="shared" ref="M90:M152" si="10">L90*K90</f>
         <v>0</v>
       </c>
       <c r="N90" s="12">
-        <f t="shared" ref="N90:N152" si="12">(K90/50000000)*(I90/23)^3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:82" x14ac:dyDescent="0.3">
+        <f t="shared" ref="N90:N152" si="11">(K90/50000000)*(I90/23)^3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B91"/>
       <c r="I91" s="10">
         <v>0</v>
@@ -5235,25 +5235,29 @@
         <v>0</v>
       </c>
       <c r="K91" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L91">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L91">
+      <c r="M91">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M91">
+      <c r="N91" s="12">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N91" s="12">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
       <c r="O91" s="13"/>
     </row>
     <row r="92" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="B92"/>
+      <c r="B92" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C92" s="8"/>
+      <c r="D92" s="9"/>
       <c r="I92" s="10">
         <v>0</v>
       </c>
@@ -5261,28 +5265,34 @@
         <v>0</v>
       </c>
       <c r="K92" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L92">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L92">
+      <c r="M92">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M92">
+      <c r="N92" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N92" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P92" s="18"/>
       <c r="Q92" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="93" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="B93"/>
+      <c r="B93" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" s="22"/>
+      <c r="D93" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="I93" s="10">
         <v>0</v>
       </c>
@@ -5290,24 +5300,30 @@
         <v>0</v>
       </c>
       <c r="K93" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L93">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L93">
+      <c r="M93">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M93">
+      <c r="N93" s="12">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N93" s="12">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B94"/>
+    </row>
+    <row r="94" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="B94" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" s="23"/>
+      <c r="D94" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="I94" s="10">
         <v>0</v>
       </c>
@@ -5315,29 +5331,34 @@
         <v>0</v>
       </c>
       <c r="K94" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L94">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L94">
+      <c r="M94">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M94">
+      <c r="N94" s="12">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N94" s="12">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
       <c r="S94" s="6"/>
     </row>
     <row r="95" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C95" s="8"/>
-      <c r="D95" s="9"/>
+      <c r="B95" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C95" s="25">
+        <f>C93*C94</f>
+        <v>0</v>
+      </c>
+      <c r="D95" s="16" t="s">
+        <v>25</v>
+      </c>
       <c r="I95" s="10">
         <v>0</v>
       </c>
@@ -5345,22 +5366,22 @@
         <v>0</v>
       </c>
       <c r="K95" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L95">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L95">
+      <c r="M95">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M95">
+      <c r="N95" s="12">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N95" s="12">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="R95" s="45" t="s">
+      <c r="R95" s="42" t="s">
         <v>18</v>
       </c>
       <c r="S95" s="20"/>
@@ -5428,16 +5449,7 @@
       <c r="CC95" s="20"/>
       <c r="CD95" s="20"/>
     </row>
-    <row r="96" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="B96" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C96" s="22">
-        <v>100000</v>
-      </c>
-      <c r="D96" s="12" t="s">
-        <v>20</v>
-      </c>
+    <row r="96" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I96" s="10">
         <v>0</v>
       </c>
@@ -5445,26 +5457,26 @@
         <v>0</v>
       </c>
       <c r="K96" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L96">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L96">
+      <c r="M96">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M96">
+      <c r="N96" s="12">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N96" s="12">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Q96" s="45" t="s">
+      <c r="Q96" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="R96" s="46" t="s">
-        <v>54</v>
+      <c r="R96" s="43" t="s">
+        <v>47</v>
       </c>
       <c r="S96" s="8"/>
       <c r="T96" s="8"/>
@@ -5532,15 +5544,11 @@
       <c r="CD96" s="9"/>
     </row>
     <row r="97" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B97" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C97" s="23">
-        <v>10600</v>
-      </c>
-      <c r="D97" s="12" t="s">
-        <v>22</v>
-      </c>
+      <c r="B97" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C97" s="8"/>
+      <c r="D97" s="9"/>
       <c r="I97" s="10">
         <v>0</v>
       </c>
@@ -5548,35 +5556,32 @@
         <v>0</v>
       </c>
       <c r="K97" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L97">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L97">
+      <c r="M97">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M97">
+      <c r="N97" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N97" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q97" s="20"/>
       <c r="R97" s="10"/>
       <c r="CD97" s="12"/>
     </row>
-    <row r="98" spans="2:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C98" s="25">
-        <f>C96*C97</f>
-        <v>1060000000</v>
-      </c>
-      <c r="D98" s="16" t="s">
-        <v>25</v>
+    <row r="98" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B98" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C98" s="22"/>
+      <c r="D98" s="26" t="s">
+        <v>27</v>
       </c>
       <c r="I98" s="10">
         <v>0</v>
@@ -5585,26 +5590,36 @@
         <v>0</v>
       </c>
       <c r="K98" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L98">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L98">
+      <c r="M98">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M98">
+      <c r="N98" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N98" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q98" s="20"/>
       <c r="R98" s="10"/>
       <c r="CD98" s="12"/>
     </row>
-    <row r="99" spans="2:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B99" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C99" s="27">
+        <f>C98/(60*60)</f>
+        <v>0</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="I99" s="10">
         <v>0</v>
       </c>
@@ -5612,19 +5627,19 @@
         <v>0</v>
       </c>
       <c r="K99" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L99">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L99">
+      <c r="M99">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M99">
+      <c r="N99" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N99" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q99" s="20"/>
@@ -5632,11 +5647,13 @@
       <c r="CD99" s="12"/>
     </row>
     <row r="100" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B100" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C100" s="8"/>
-      <c r="D100" s="9"/>
+      <c r="B100" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C100" s="22"/>
+      <c r="D100" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="I100" s="10">
         <v>0</v>
       </c>
@@ -5644,34 +5661,35 @@
         <v>0</v>
       </c>
       <c r="K100" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L100">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L100">
+      <c r="M100">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M100">
+      <c r="N100" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N100" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q100" s="20"/>
       <c r="R100" s="10"/>
       <c r="CD100" s="12"/>
     </row>
-    <row r="101" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B101" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C101" s="22">
-        <v>6706</v>
-      </c>
-      <c r="D101" s="26" t="s">
-        <v>27</v>
+    <row r="101" spans="2:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B101" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C101" s="28">
+        <f>C99*C100</f>
+        <v>0</v>
+      </c>
+      <c r="D101" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="I101" s="10">
         <v>0</v>
@@ -5680,36 +5698,26 @@
         <v>0</v>
       </c>
       <c r="K101" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L101">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L101">
+      <c r="M101">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M101">
+      <c r="N101" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N101" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q101" s="20"/>
       <c r="R101" s="10"/>
       <c r="CD101" s="12"/>
     </row>
-    <row r="102" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B102" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C102" s="27">
-        <f>C101/(60*60)</f>
-        <v>1.8627777777777779</v>
-      </c>
-      <c r="D102" s="12" t="s">
-        <v>28</v>
-      </c>
+    <row r="102" spans="2:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I102" s="10">
         <v>0</v>
       </c>
@@ -5717,19 +5725,19 @@
         <v>0</v>
       </c>
       <c r="K102" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L102">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L102">
+      <c r="M102">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M102">
+      <c r="N102" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N102" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q102" s="20"/>
@@ -5737,15 +5745,11 @@
       <c r="CD102" s="12"/>
     </row>
     <row r="103" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B103" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C103" s="22">
-        <v>6994</v>
-      </c>
-      <c r="D103" s="26" t="s">
-        <v>22</v>
-      </c>
+      <c r="B103" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C103" s="8"/>
+      <c r="D103" s="9"/>
       <c r="I103" s="10">
         <v>0</v>
       </c>
@@ -5753,19 +5757,19 @@
         <v>0</v>
       </c>
       <c r="K103" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L103">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L103">
+      <c r="M103">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M103">
+      <c r="N103" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N103" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q103" s="20"/>
@@ -5774,15 +5778,13 @@
     </row>
     <row r="104" spans="2:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B104" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C104" s="28">
-        <f>C102*C103</f>
-        <v>13028.267777777779</v>
-      </c>
-      <c r="D104" s="16" t="s">
-        <v>25</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C104" s="29" t="e">
+        <f>C95/C101</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D104" s="16"/>
       <c r="I104" s="10">
         <v>0</v>
       </c>
@@ -5790,26 +5792,26 @@
         <v>0</v>
       </c>
       <c r="K104" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L104">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L104">
+      <c r="M104">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M104">
+      <c r="N104" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N104" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q104" s="20"/>
       <c r="R104" s="10"/>
       <c r="CD104" s="12"/>
     </row>
-    <row r="105" spans="2:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:82" x14ac:dyDescent="0.3">
       <c r="I105" s="10">
         <v>0</v>
       </c>
@@ -5817,19 +5819,19 @@
         <v>0</v>
       </c>
       <c r="K105" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L105">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L105">
+      <c r="M105">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M105">
+      <c r="N105" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N105" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q105" s="20"/>
@@ -5837,11 +5839,6 @@
       <c r="CD105" s="12"/>
     </row>
     <row r="106" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B106" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C106" s="8"/>
-      <c r="D106" s="9"/>
       <c r="I106" s="10">
         <v>0</v>
       </c>
@@ -5849,34 +5846,26 @@
         <v>0</v>
       </c>
       <c r="K106" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L106">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L106">
+      <c r="M106">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M106">
+      <c r="N106" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N106" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q106" s="20"/>
       <c r="R106" s="10"/>
       <c r="CD106" s="12"/>
     </row>
-    <row r="107" spans="2:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B107" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C107" s="29">
-        <f>C98/C104</f>
-        <v>81361.545378122653</v>
-      </c>
-      <c r="D107" s="16"/>
+    <row r="107" spans="2:82" x14ac:dyDescent="0.3">
       <c r="I107" s="10">
         <v>0</v>
       </c>
@@ -5884,26 +5873,26 @@
         <v>0</v>
       </c>
       <c r="K107" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L107">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L107">
+      <c r="M107">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M107">
+      <c r="N107" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N107" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q107" s="20"/>
       <c r="R107" s="10"/>
       <c r="CD107" s="12"/>
     </row>
-    <row r="108" spans="2:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:82" x14ac:dyDescent="0.3">
       <c r="C108" s="30"/>
       <c r="I108" s="10">
         <v>0</v>
@@ -5912,19 +5901,19 @@
         <v>0</v>
       </c>
       <c r="K108" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L108">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L108">
+      <c r="M108">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M108">
+      <c r="N108" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N108" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q108" s="20"/>
@@ -5932,11 +5921,6 @@
       <c r="CD108" s="12"/>
     </row>
     <row r="109" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B109" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="C109" s="8"/>
-      <c r="D109" s="9"/>
       <c r="I109" s="10">
         <v>0</v>
       </c>
@@ -5944,19 +5928,19 @@
         <v>0</v>
       </c>
       <c r="K109" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L109">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L109">
+      <c r="M109">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M109">
+      <c r="N109" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N109" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q109" s="20"/>
@@ -5964,14 +5948,8 @@
       <c r="CD109" s="12"/>
     </row>
     <row r="110" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B110" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C110" s="32">
-        <v>205.9</v>
-      </c>
-      <c r="D110" s="12" t="s">
-        <v>14</v>
+      <c r="B110" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="I110" s="10">
         <v>0</v>
@@ -5980,36 +5958,26 @@
         <v>0</v>
       </c>
       <c r="K110" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L110">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L110">
+      <c r="M110">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M110">
+      <c r="N110" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N110" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q110" s="20"/>
       <c r="R110" s="10"/>
       <c r="CD110" s="12"/>
     </row>
-    <row r="111" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B111" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C111" s="27">
-        <f>0.7*C110</f>
-        <v>144.13</v>
-      </c>
-      <c r="D111" s="12" t="s">
-        <v>14</v>
-      </c>
+    <row r="111" spans="2:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I111" s="10">
         <v>0</v>
       </c>
@@ -6017,34 +5985,31 @@
         <v>0</v>
       </c>
       <c r="K111" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L111">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L111">
+      <c r="M111">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M111">
+      <c r="N111" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N111" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q111" s="20"/>
       <c r="R111" s="10"/>
       <c r="CD111" s="12"/>
     </row>
-    <row r="112" spans="2:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B112" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C112" s="33">
-        <f>1446608*2</f>
-        <v>2893216</v>
-      </c>
-      <c r="D112" s="16"/>
+    <row r="112" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B112" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C112" s="8"/>
+      <c r="D112" s="9"/>
       <c r="I112" s="10">
         <v>0</v>
       </c>
@@ -6052,19 +6017,19 @@
         <v>0</v>
       </c>
       <c r="K112" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L112">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L112">
+      <c r="M112">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M112">
+      <c r="N112" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N112" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q112" s="20"/>
@@ -6072,6 +6037,13 @@
       <c r="CD112" s="12"/>
     </row>
     <row r="113" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="B113" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C113" s="32"/>
+      <c r="D113" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="I113" s="10">
         <v>0</v>
       </c>
@@ -6079,19 +6051,19 @@
         <v>0</v>
       </c>
       <c r="K113" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L113">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L113">
+      <c r="M113">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M113">
+      <c r="N113" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N113" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q113" s="20"/>
@@ -6099,6 +6071,13 @@
       <c r="CD113" s="12"/>
     </row>
     <row r="114" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="B114" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C114" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="D114" s="12"/>
       <c r="I114" s="10">
         <v>0</v>
       </c>
@@ -6106,19 +6085,19 @@
         <v>0</v>
       </c>
       <c r="K114" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L114">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L114">
+      <c r="M114">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M114">
+      <c r="N114" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N114" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q114" s="20"/>
@@ -6126,6 +6105,16 @@
       <c r="CD114" s="12"/>
     </row>
     <row r="115" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="B115" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C115" s="27">
+        <f>C113*C114</f>
+        <v>0</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="I115" s="10">
         <v>0</v>
       </c>
@@ -6133,26 +6122,31 @@
         <v>0</v>
       </c>
       <c r="K115" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L115">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L115">
+      <c r="M115">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M115">
+      <c r="N115" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N115" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q115" s="20"/>
       <c r="R115" s="10"/>
       <c r="CD115" s="12"/>
     </row>
-    <row r="116" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B116" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C116" s="33"/>
+      <c r="D116" s="16"/>
       <c r="I116" s="10">
         <v>0</v>
       </c>
@@ -6160,19 +6154,19 @@
         <v>0</v>
       </c>
       <c r="K116" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L116">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L116">
+      <c r="M116">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M116">
+      <c r="N116" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N116" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q116" s="20"/>
@@ -6187,19 +6181,19 @@
         <v>0</v>
       </c>
       <c r="K117" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L117">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L117">
+      <c r="M117">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M117">
+      <c r="N117" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N117" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O117" s="13"/>
@@ -6209,7 +6203,7 @@
     </row>
     <row r="118" spans="1:82" x14ac:dyDescent="0.3">
       <c r="B118" s="19" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C118" s="8"/>
       <c r="D118" s="9"/>
@@ -6220,19 +6214,19 @@
         <v>0</v>
       </c>
       <c r="K118" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L118">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L118">
+      <c r="M118">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M118">
+      <c r="N118" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N118" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P118" s="18"/>
@@ -6242,11 +6236,11 @@
     </row>
     <row r="119" spans="1:82" x14ac:dyDescent="0.3">
       <c r="B119" s="34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C119" s="35">
-        <f>C112</f>
-        <v>2893216</v>
+        <f>C116</f>
+        <v>0</v>
       </c>
       <c r="D119" s="12"/>
       <c r="I119" s="10">
@@ -6256,19 +6250,19 @@
         <v>0</v>
       </c>
       <c r="K119" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L119">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L119">
+      <c r="M119">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M119">
+      <c r="N119" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N119" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q119" s="20"/>
@@ -6277,11 +6271,11 @@
     </row>
     <row r="120" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B120" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C120" s="37">
+        <v>34</v>
+      </c>
+      <c r="C120" s="37" t="e">
         <f>(SUM(M89:M152)/C119)^(1/3)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D120" s="16" t="s">
         <v>14</v>
@@ -6293,19 +6287,19 @@
         <v>0</v>
       </c>
       <c r="K120" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L120">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L120">
+      <c r="M120">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M120">
+      <c r="N120" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N120" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q120" s="20"/>
@@ -6320,19 +6314,19 @@
         <v>0</v>
       </c>
       <c r="K121" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L121">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L121">
+      <c r="M121">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M121">
+      <c r="N121" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N121" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q121" s="20"/>
@@ -6351,29 +6345,28 @@
         <v>0</v>
       </c>
       <c r="K122" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L122">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L122">
+      <c r="M122">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M122">
+      <c r="N122" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N122" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q122" s="20"/>
       <c r="R122" s="10"/>
       <c r="CD122" s="12"/>
     </row>
-    <row r="123" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
-      <c r="C123" s="38"/>
-      <c r="D123" s="38"/>
+      <c r="B123"/>
       <c r="E123" s="38"/>
       <c r="I123" s="10">
         <v>0</v>
@@ -6382,19 +6375,19 @@
         <v>0</v>
       </c>
       <c r="K123" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L123">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L123">
+      <c r="M123">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M123">
+      <c r="N123" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N123" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q123" s="20"/>
@@ -6402,11 +6395,7 @@
       <c r="CD123" s="12"/>
     </row>
     <row r="124" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="B124" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C124" s="39"/>
-      <c r="D124" s="40"/>
+      <c r="B124"/>
       <c r="I124" s="10">
         <v>0</v>
       </c>
@@ -6414,19 +6403,19 @@
         <v>0</v>
       </c>
       <c r="K124" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L124">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L124">
+      <c r="M124">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M124">
+      <c r="N124" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N124" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q124" s="20"/>
@@ -6434,15 +6423,8 @@
       <c r="CD124" s="12"/>
     </row>
     <row r="125" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="B125" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C125" s="35">
-        <f>C111</f>
-        <v>144.13</v>
-      </c>
-      <c r="D125" s="12"/>
-      <c r="F125" s="42"/>
+      <c r="B125"/>
+      <c r="F125" s="40"/>
       <c r="I125" s="10">
         <v>0</v>
       </c>
@@ -6450,34 +6432,27 @@
         <v>0</v>
       </c>
       <c r="K125" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L125">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L125">
+      <c r="M125">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M125">
+      <c r="N125" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N125" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q125" s="20"/>
       <c r="R125" s="10"/>
       <c r="CD125" s="12"/>
     </row>
-    <row r="126" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B126" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C126" s="43">
-        <f>C120</f>
-        <v>0</v>
-      </c>
-      <c r="D126" s="16"/>
+    <row r="126" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="B126"/>
       <c r="I126" s="10">
         <v>0</v>
       </c>
@@ -6485,19 +6460,19 @@
         <v>0</v>
       </c>
       <c r="K126" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L126">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L126">
+      <c r="M126">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M126">
+      <c r="N126" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N126" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q126" s="20"/>
@@ -6505,6 +6480,7 @@
       <c r="CD126" s="12"/>
     </row>
     <row r="127" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="B127"/>
       <c r="I127" s="10">
         <v>0</v>
       </c>
@@ -6512,19 +6488,19 @@
         <v>0</v>
       </c>
       <c r="K127" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L127">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L127">
+      <c r="M127">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M127">
+      <c r="N127" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N127" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q127" s="20"/>
@@ -6532,6 +6508,7 @@
       <c r="CD127" s="12"/>
     </row>
     <row r="128" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="B128"/>
       <c r="I128" s="10">
         <v>0</v>
       </c>
@@ -6539,19 +6516,19 @@
         <v>0</v>
       </c>
       <c r="K128" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L128">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L128">
+      <c r="M128">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M128">
+      <c r="N128" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N128" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q128" s="20"/>
@@ -6567,19 +6544,19 @@
         <v>0</v>
       </c>
       <c r="K129" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L129">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L129">
+      <c r="M129">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M129">
+      <c r="N129" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N129" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q129" s="20"/>
@@ -6595,19 +6572,19 @@
         <v>0</v>
       </c>
       <c r="K130" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L130">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L130">
+      <c r="M130">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M130">
+      <c r="N130" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N130" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q130" s="20"/>
@@ -6623,19 +6600,19 @@
         <v>0</v>
       </c>
       <c r="K131" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L131">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L131">
+      <c r="M131">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M131">
+      <c r="N131" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N131" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q131" s="20"/>
@@ -6651,19 +6628,19 @@
         <v>0</v>
       </c>
       <c r="K132" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L132">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L132">
+      <c r="M132">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M132">
+      <c r="N132" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N132" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q132" s="20"/>
@@ -6679,19 +6656,19 @@
         <v>0</v>
       </c>
       <c r="K133" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L133">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L133">
+      <c r="M133">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M133">
+      <c r="N133" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N133" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q133" s="20"/>
@@ -6707,19 +6684,19 @@
         <v>0</v>
       </c>
       <c r="K134" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L134">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L134">
+      <c r="M134">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M134">
+      <c r="N134" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N134" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q134" s="20"/>
@@ -6735,19 +6712,19 @@
         <v>0</v>
       </c>
       <c r="K135" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L135">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L135">
+      <c r="M135">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M135">
+      <c r="N135" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N135" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q135" s="20"/>
@@ -6763,19 +6740,19 @@
         <v>0</v>
       </c>
       <c r="K136" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L136">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L136">
+      <c r="M136">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M136">
+      <c r="N136" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N136" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q136" s="20"/>
@@ -6791,19 +6768,19 @@
         <v>0</v>
       </c>
       <c r="K137" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L137">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L137">
+      <c r="M137">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M137">
+      <c r="N137" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N137" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q137" s="20"/>
@@ -6819,19 +6796,19 @@
         <v>0</v>
       </c>
       <c r="K138" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L138">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L138">
+      <c r="M138">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M138">
+      <c r="N138" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N138" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q138" s="20"/>
@@ -6847,19 +6824,19 @@
         <v>0</v>
       </c>
       <c r="K139" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L139">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L139">
+      <c r="M139">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M139">
+      <c r="N139" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N139" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q139" s="20"/>
@@ -6875,19 +6852,19 @@
         <v>0</v>
       </c>
       <c r="K140" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L140">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L140">
+      <c r="M140">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M140">
+      <c r="N140" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N140" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q140" s="20"/>
@@ -6903,19 +6880,19 @@
         <v>0</v>
       </c>
       <c r="K141" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L141">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L141">
+      <c r="M141">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M141">
+      <c r="N141" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N141" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q141" s="20"/>
@@ -6931,19 +6908,19 @@
         <v>0</v>
       </c>
       <c r="K142" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L142">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L142">
+      <c r="M142">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M142">
+      <c r="N142" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N142" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q142" s="20"/>
@@ -6959,19 +6936,19 @@
         <v>0</v>
       </c>
       <c r="K143" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L143">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L143">
+      <c r="M143">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M143">
+      <c r="N143" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N143" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q143" s="20"/>
@@ -6987,19 +6964,19 @@
         <v>0</v>
       </c>
       <c r="K144" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L144">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L144">
+      <c r="M144">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M144">
+      <c r="N144" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N144" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q144" s="20"/>
@@ -7015,19 +6992,19 @@
         <v>0</v>
       </c>
       <c r="K145" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L145">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L145">
+      <c r="M145">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M145">
+      <c r="N145" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N145" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q145" s="20"/>
@@ -7043,19 +7020,19 @@
         <v>0</v>
       </c>
       <c r="K146" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L146">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L146">
+      <c r="M146">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M146">
+      <c r="N146" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N146" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q146" s="20"/>
@@ -7071,19 +7048,19 @@
         <v>0</v>
       </c>
       <c r="K147" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L147">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L147">
+      <c r="M147">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M147">
+      <c r="N147" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N147" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q147" s="20"/>
@@ -7099,19 +7076,19 @@
         <v>0</v>
       </c>
       <c r="K148" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L148">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L148">
+      <c r="M148">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M148">
+      <c r="N148" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N148" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q148" s="20"/>
@@ -7127,19 +7104,19 @@
         <v>0</v>
       </c>
       <c r="K149" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L149">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L149">
+      <c r="M149">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M149">
+      <c r="N149" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N149" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q149" s="20"/>
@@ -7155,19 +7132,19 @@
         <v>0</v>
       </c>
       <c r="K150" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L150">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L150">
+      <c r="M150">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M150">
+      <c r="N150" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N150" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q150" s="20"/>
@@ -7182,19 +7159,19 @@
         <v>0</v>
       </c>
       <c r="K151" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L151">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L151">
+      <c r="M151">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M151">
+      <c r="N151" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N151" s="12">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q151" s="20"/>
@@ -7203,7 +7180,7 @@
     </row>
     <row r="152" spans="2:82" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E152" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I152" s="14">
         <v>0</v>
@@ -7211,20 +7188,20 @@
       <c r="J152" s="15">
         <v>0</v>
       </c>
-      <c r="K152" s="44">
+      <c r="K152" s="41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L152" s="15">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L152" s="15">
+      <c r="M152" s="15">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M152" s="15">
+      <c r="N152" s="16">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N152" s="16">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q152" s="20"/>
@@ -7232,20 +7209,16 @@
       <c r="CD152" s="12"/>
     </row>
     <row r="153" spans="2:82" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E153" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="F153" s="51"/>
-      <c r="G153" s="51"/>
-      <c r="H153" s="52"/>
-      <c r="I153" s="47"/>
-      <c r="J153" s="47"/>
-      <c r="K153" s="47"/>
-      <c r="L153" s="47"/>
-      <c r="M153" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="N153" s="57">
+      <c r="E153" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="F153" s="44"/>
+      <c r="G153" s="44"/>
+      <c r="H153" s="45"/>
+      <c r="M153" t="s">
+        <v>37</v>
+      </c>
+      <c r="N153" s="49">
         <f>SUM(N89:N152)</f>
         <v>0</v>
       </c>
@@ -7254,52 +7227,49 @@
       <c r="CD153" s="12"/>
     </row>
     <row r="154" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="E154" s="54"/>
-      <c r="F154" s="55"/>
-      <c r="G154" s="55"/>
-      <c r="H154" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="I154" s="56">
+      <c r="E154" s="59"/>
+      <c r="F154" s="47"/>
+      <c r="G154" s="47"/>
+      <c r="H154" t="s">
+        <v>38</v>
+      </c>
+      <c r="I154" s="48">
         <f>C111</f>
-        <v>144.13</v>
-      </c>
-      <c r="J154" s="47"/>
-      <c r="K154" s="49">
+        <v>0</v>
+      </c>
+      <c r="K154" s="13">
         <f>C112</f>
-        <v>2893216</v>
-      </c>
-      <c r="L154" s="47"/>
-      <c r="M154" s="47"/>
-      <c r="N154" s="57">
-        <f t="shared" ref="N154:N155" si="13">(K154/50000000)*(I154/23)^3</f>
-        <v>14.239361169084255</v>
+        <v>0</v>
+      </c>
+      <c r="N154" s="49">
+        <f t="shared" ref="N154:N155" si="12">(K154/50000000)*(I154/23)^3</f>
+        <v>0</v>
       </c>
       <c r="Q154" s="20"/>
       <c r="R154" s="10"/>
       <c r="CD154" s="12"/>
     </row>
     <row r="155" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="E155" s="58"/>
-      <c r="F155" s="59"/>
-      <c r="G155" s="59"/>
-      <c r="H155" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="I155" s="60">
+      <c r="E155" s="60"/>
+      <c r="F155" s="50"/>
+      <c r="G155" s="50"/>
+      <c r="H155" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="I155" s="51" t="e">
         <f>C120</f>
-        <v>0</v>
-      </c>
-      <c r="J155" s="60"/>
-      <c r="K155" s="61">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J155" s="51"/>
+      <c r="K155" s="52">
         <f>C119</f>
-        <v>2893216</v>
-      </c>
-      <c r="L155" s="60"/>
-      <c r="M155" s="60"/>
-      <c r="N155" s="62">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L155" s="51"/>
+      <c r="M155" s="51"/>
+      <c r="N155" s="53" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q155" s="20"/>
       <c r="R155" s="10"/>
@@ -7406,7 +7376,7 @@
         <v>1</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I165" s="6" t="s">
         <v>3</v>
@@ -7422,8 +7392,8 @@
       <c r="C166" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I166" s="66" t="s">
-        <v>56</v>
+      <c r="I166" s="57" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="167" spans="1:83" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
@@ -7475,255 +7445,255 @@
         <v>0</v>
       </c>
       <c r="T168" s="8">
-        <f t="shared" ref="T168:CD168" si="14">T177</f>
+        <f t="shared" ref="T168:CD168" si="13">T177</f>
         <v>0</v>
       </c>
       <c r="U168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AB168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AF168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AG168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AH168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AI168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AJ168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AK168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AL168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AN168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AO168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AP168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AQ168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AR168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AS168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AT168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AU168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AV168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AW168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AX168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AY168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AZ168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BA168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BB168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BC168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BD168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BE168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BF168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BG168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BH168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BI168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BJ168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BK168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BL168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BM168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BN168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BO168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BP168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BQ168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BR168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BS168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BT168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BU168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BV168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BW168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BX168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BY168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BZ168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="CA168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="CB168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="CC168" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="CD168" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -7777,255 +7747,255 @@
         <v>0</v>
       </c>
       <c r="T170" s="15">
-        <f t="shared" ref="T170:CD170" si="15">SUM(T178:T241)</f>
+        <f t="shared" ref="T170:CD170" si="14">SUM(T178:T241)</f>
         <v>0</v>
       </c>
       <c r="U170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="V170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Z170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AA170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AB170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AC170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AE170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AG170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AH170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AI170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AJ170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AK170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AL170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AM170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AN170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AO170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AP170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AQ170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AR170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AS170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AT170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AU170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AV170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AW170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AX170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AY170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AZ170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BA170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BB170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BC170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BD170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BE170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BF170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BG170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BH170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BI170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BJ170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BK170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BL170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BM170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BN170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BO170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BP170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BQ170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BR170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BS170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BT170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BU170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BV170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BW170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BX170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BY170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BZ170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CA170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CB170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CC170" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CD170" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -8040,23 +8010,23 @@
         <v>0</v>
       </c>
       <c r="K171" s="13">
-        <f t="shared" ref="K171:K233" si="16">J171*$C$188</f>
+        <f t="shared" ref="K171:K233" si="15">J171*$C$188</f>
         <v>0</v>
       </c>
       <c r="L171">
-        <f t="shared" ref="L171:L233" si="17">I171^3</f>
+        <f t="shared" ref="L171:L233" si="16">I171^3</f>
         <v>0</v>
       </c>
       <c r="M171">
-        <f t="shared" ref="M171:M233" si="18">L171*K171</f>
+        <f t="shared" ref="M171:M233" si="17">L171*K171</f>
         <v>0</v>
       </c>
       <c r="N171" s="12">
-        <f t="shared" ref="N171:N233" si="19">(K171/50000000)*(I171/23)^3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:83" x14ac:dyDescent="0.3">
+        <f t="shared" ref="N171:N233" si="18">(K171/50000000)*(I171/23)^3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:83" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B172"/>
       <c r="I172" s="10">
         <v>0</v>
@@ -8065,25 +8035,29 @@
         <v>0</v>
       </c>
       <c r="K172" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L172">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L172">
+      <c r="M172">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M172">
+      <c r="N172" s="12">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="N172" s="12">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
       <c r="O172" s="13"/>
     </row>
     <row r="173" spans="1:83" x14ac:dyDescent="0.3">
-      <c r="B173"/>
+      <c r="B173" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C173" s="8"/>
+      <c r="D173" s="9"/>
       <c r="I173" s="10">
         <v>0</v>
       </c>
@@ -8091,28 +8065,34 @@
         <v>0</v>
       </c>
       <c r="K173" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L173">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L173">
+      <c r="M173">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M173">
+      <c r="N173" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N173" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P173" s="18"/>
       <c r="Q173" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="174" spans="1:83" x14ac:dyDescent="0.3">
-      <c r="B174"/>
+      <c r="B174" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C174" s="22"/>
+      <c r="D174" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="I174" s="10">
         <v>0</v>
       </c>
@@ -8120,24 +8100,30 @@
         <v>0</v>
       </c>
       <c r="K174" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L174">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L174">
+      <c r="M174">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M174">
+      <c r="N174" s="12">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="N174" s="12">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:83" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B175"/>
+    </row>
+    <row r="175" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="B175" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C175" s="23"/>
+      <c r="D175" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="I175" s="10">
         <v>0</v>
       </c>
@@ -8145,29 +8131,34 @@
         <v>0</v>
       </c>
       <c r="K175" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L175">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L175">
+      <c r="M175">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M175">
+      <c r="N175" s="12">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="N175" s="12">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
       <c r="S175" s="6"/>
     </row>
     <row r="176" spans="1:83" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B176" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C176" s="8"/>
-      <c r="D176" s="9"/>
+      <c r="B176" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C176" s="25">
+        <f>C174*C175</f>
+        <v>0</v>
+      </c>
+      <c r="D176" s="16" t="s">
+        <v>25</v>
+      </c>
       <c r="I176" s="10">
         <v>0</v>
       </c>
@@ -8175,22 +8166,22 @@
         <v>0</v>
       </c>
       <c r="K176" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L176">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L176">
+      <c r="M176">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M176">
+      <c r="N176" s="12">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="N176" s="12">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="R176" s="45" t="s">
+      <c r="R176" s="42" t="s">
         <v>18</v>
       </c>
       <c r="S176" s="20"/>
@@ -8259,16 +8250,7 @@
       <c r="CD176" s="20"/>
       <c r="CE176" s="20"/>
     </row>
-    <row r="177" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B177" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C177" s="22">
-        <v>100000</v>
-      </c>
-      <c r="D177" s="12" t="s">
-        <v>20</v>
-      </c>
+    <row r="177" spans="2:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I177" s="10">
         <v>0</v>
       </c>
@@ -8276,26 +8258,26 @@
         <v>0</v>
       </c>
       <c r="K177" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L177">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L177">
+      <c r="M177">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M177">
+      <c r="N177" s="12">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="N177" s="12">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q177" s="45" t="s">
+      <c r="Q177" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="R177" s="46" t="s">
-        <v>54</v>
+      <c r="R177" s="43" t="s">
+        <v>47</v>
       </c>
       <c r="S177" s="8"/>
       <c r="T177" s="8"/>
@@ -8363,15 +8345,11 @@
       <c r="CD177" s="9"/>
     </row>
     <row r="178" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B178" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C178" s="23">
-        <v>10600</v>
-      </c>
-      <c r="D178" s="12" t="s">
-        <v>22</v>
-      </c>
+      <c r="B178" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C178" s="8"/>
+      <c r="D178" s="9"/>
       <c r="I178" s="10">
         <v>0</v>
       </c>
@@ -8379,35 +8357,32 @@
         <v>0</v>
       </c>
       <c r="K178" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L178">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L178">
+      <c r="M178">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M178">
+      <c r="N178" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N178" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q178" s="20"/>
       <c r="R178" s="10"/>
       <c r="CD178" s="12"/>
     </row>
-    <row r="179" spans="2:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B179" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C179" s="25">
-        <f>C177*C178</f>
-        <v>1060000000</v>
-      </c>
-      <c r="D179" s="16" t="s">
-        <v>25</v>
+    <row r="179" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B179" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C179" s="22"/>
+      <c r="D179" s="26" t="s">
+        <v>27</v>
       </c>
       <c r="I179" s="10">
         <v>0</v>
@@ -8416,26 +8391,36 @@
         <v>0</v>
       </c>
       <c r="K179" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L179">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L179">
+      <c r="M179">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M179">
+      <c r="N179" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N179" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q179" s="20"/>
       <c r="R179" s="10"/>
       <c r="CD179" s="12"/>
     </row>
-    <row r="180" spans="2:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B180" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C180" s="27">
+        <f>C179/(60*60)</f>
+        <v>0</v>
+      </c>
+      <c r="D180" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="I180" s="10">
         <v>0</v>
       </c>
@@ -8443,19 +8428,19 @@
         <v>0</v>
       </c>
       <c r="K180" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L180">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L180">
+      <c r="M180">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M180">
+      <c r="N180" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N180" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q180" s="20"/>
@@ -8463,11 +8448,13 @@
       <c r="CD180" s="12"/>
     </row>
     <row r="181" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B181" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C181" s="8"/>
-      <c r="D181" s="9"/>
+      <c r="B181" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C181" s="22"/>
+      <c r="D181" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="I181" s="10">
         <v>0</v>
       </c>
@@ -8475,34 +8462,35 @@
         <v>0</v>
       </c>
       <c r="K181" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L181">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L181">
+      <c r="M181">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M181">
+      <c r="N181" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N181" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q181" s="20"/>
       <c r="R181" s="10"/>
       <c r="CD181" s="12"/>
     </row>
-    <row r="182" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B182" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C182" s="22">
-        <v>6305</v>
-      </c>
-      <c r="D182" s="26" t="s">
-        <v>27</v>
+    <row r="182" spans="2:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B182" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C182" s="28">
+        <f>C180*C181</f>
+        <v>0</v>
+      </c>
+      <c r="D182" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="I182" s="10">
         <v>0</v>
@@ -8511,36 +8499,26 @@
         <v>0</v>
       </c>
       <c r="K182" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L182">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L182">
+      <c r="M182">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M182">
+      <c r="N182" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N182" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q182" s="20"/>
       <c r="R182" s="10"/>
       <c r="CD182" s="12"/>
     </row>
-    <row r="183" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B183" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C183" s="27">
-        <f>C182/(60*60)</f>
-        <v>1.7513888888888889</v>
-      </c>
-      <c r="D183" s="12" t="s">
-        <v>28</v>
-      </c>
+    <row r="183" spans="2:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I183" s="10">
         <v>0</v>
       </c>
@@ -8548,19 +8526,19 @@
         <v>0</v>
       </c>
       <c r="K183" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L183">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L183">
+      <c r="M183">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M183">
+      <c r="N183" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N183" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q183" s="20"/>
@@ -8568,15 +8546,11 @@
       <c r="CD183" s="12"/>
     </row>
     <row r="184" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B184" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C184" s="22">
-        <v>7442</v>
-      </c>
-      <c r="D184" s="26" t="s">
-        <v>22</v>
-      </c>
+      <c r="B184" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C184" s="8"/>
+      <c r="D184" s="9"/>
       <c r="I184" s="10">
         <v>0</v>
       </c>
@@ -8584,19 +8558,19 @@
         <v>0</v>
       </c>
       <c r="K184" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L184">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L184">
+      <c r="M184">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M184">
+      <c r="N184" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N184" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q184" s="20"/>
@@ -8605,15 +8579,13 @@
     </row>
     <row r="185" spans="2:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B185" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C185" s="28">
-        <f>C183*C184</f>
-        <v>13033.836111111112</v>
-      </c>
-      <c r="D185" s="16" t="s">
-        <v>25</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C185" s="29" t="e">
+        <f>C176/C182</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D185" s="16"/>
       <c r="I185" s="10">
         <v>0</v>
       </c>
@@ -8621,26 +8593,26 @@
         <v>0</v>
       </c>
       <c r="K185" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L185">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L185">
+      <c r="M185">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M185">
+      <c r="N185" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N185" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q185" s="20"/>
       <c r="R185" s="10"/>
       <c r="CD185" s="12"/>
     </row>
-    <row r="186" spans="2:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:82" x14ac:dyDescent="0.3">
       <c r="I186" s="10">
         <v>0</v>
       </c>
@@ -8648,19 +8620,19 @@
         <v>0</v>
       </c>
       <c r="K186" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L186">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L186">
+      <c r="M186">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M186">
+      <c r="N186" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N186" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q186" s="20"/>
@@ -8668,11 +8640,6 @@
       <c r="CD186" s="12"/>
     </row>
     <row r="187" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B187" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C187" s="8"/>
-      <c r="D187" s="9"/>
       <c r="I187" s="10">
         <v>0</v>
       </c>
@@ -8680,34 +8647,26 @@
         <v>0</v>
       </c>
       <c r="K187" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L187">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L187">
+      <c r="M187">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M187">
+      <c r="N187" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N187" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q187" s="20"/>
       <c r="R187" s="10"/>
       <c r="CD187" s="12"/>
     </row>
-    <row r="188" spans="2:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B188" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C188" s="29">
-        <f>C179/C185</f>
-        <v>81326.785987156079</v>
-      </c>
-      <c r="D188" s="16"/>
+    <row r="188" spans="2:82" x14ac:dyDescent="0.3">
       <c r="I188" s="10">
         <v>0</v>
       </c>
@@ -8715,26 +8674,26 @@
         <v>0</v>
       </c>
       <c r="K188" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L188">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L188">
+      <c r="M188">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M188">
+      <c r="N188" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N188" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q188" s="20"/>
       <c r="R188" s="10"/>
       <c r="CD188" s="12"/>
     </row>
-    <row r="189" spans="2:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:82" x14ac:dyDescent="0.3">
       <c r="C189" s="30"/>
       <c r="I189" s="10">
         <v>0</v>
@@ -8743,19 +8702,19 @@
         <v>0</v>
       </c>
       <c r="K189" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L189">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L189">
+      <c r="M189">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M189">
+      <c r="N189" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N189" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q189" s="20"/>
@@ -8763,11 +8722,6 @@
       <c r="CD189" s="12"/>
     </row>
     <row r="190" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B190" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="C190" s="8"/>
-      <c r="D190" s="9"/>
       <c r="I190" s="10">
         <v>0</v>
       </c>
@@ -8775,19 +8729,19 @@
         <v>0</v>
       </c>
       <c r="K190" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L190">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L190">
+      <c r="M190">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M190">
+      <c r="N190" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N190" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q190" s="20"/>
@@ -8795,14 +8749,8 @@
       <c r="CD190" s="12"/>
     </row>
     <row r="191" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B191" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C191" s="32">
-        <v>205.9</v>
-      </c>
-      <c r="D191" s="12" t="s">
-        <v>14</v>
+      <c r="B191" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="I191" s="10">
         <v>0</v>
@@ -8811,36 +8759,26 @@
         <v>0</v>
       </c>
       <c r="K191" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L191">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L191">
+      <c r="M191">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M191">
+      <c r="N191" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N191" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q191" s="20"/>
       <c r="R191" s="10"/>
       <c r="CD191" s="12"/>
     </row>
-    <row r="192" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="B192" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C192" s="27">
-        <f>0.7*C191</f>
-        <v>144.13</v>
-      </c>
-      <c r="D192" s="12" t="s">
-        <v>14</v>
-      </c>
+    <row r="192" spans="2:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I192" s="10">
         <v>0</v>
       </c>
@@ -8848,34 +8786,31 @@
         <v>0</v>
       </c>
       <c r="K192" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L192">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L192">
+      <c r="M192">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M192">
+      <c r="N192" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N192" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q192" s="20"/>
       <c r="R192" s="10"/>
       <c r="CD192" s="12"/>
     </row>
-    <row r="193" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B193" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C193" s="33">
-        <f>1446608*2</f>
-        <v>2893216</v>
-      </c>
-      <c r="D193" s="16"/>
+    <row r="193" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="B193" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C193" s="8"/>
+      <c r="D193" s="9"/>
       <c r="I193" s="10">
         <v>0</v>
       </c>
@@ -8883,19 +8818,19 @@
         <v>0</v>
       </c>
       <c r="K193" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L193">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L193">
+      <c r="M193">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M193">
+      <c r="N193" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N193" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q193" s="20"/>
@@ -8903,6 +8838,13 @@
       <c r="CD193" s="12"/>
     </row>
     <row r="194" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="B194" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C194" s="32"/>
+      <c r="D194" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="I194" s="10">
         <v>0</v>
       </c>
@@ -8910,19 +8852,19 @@
         <v>0</v>
       </c>
       <c r="K194" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L194">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L194">
+      <c r="M194">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M194">
+      <c r="N194" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N194" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q194" s="20"/>
@@ -8930,6 +8872,13 @@
       <c r="CD194" s="12"/>
     </row>
     <row r="195" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="B195" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C195" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="D195" s="12"/>
       <c r="I195" s="10">
         <v>0</v>
       </c>
@@ -8937,19 +8886,19 @@
         <v>0</v>
       </c>
       <c r="K195" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L195">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L195">
+      <c r="M195">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M195">
+      <c r="N195" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N195" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q195" s="20"/>
@@ -8957,6 +8906,16 @@
       <c r="CD195" s="12"/>
     </row>
     <row r="196" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="B196" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C196" s="27">
+        <f>C194*C195</f>
+        <v>0</v>
+      </c>
+      <c r="D196" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="I196" s="10">
         <v>0</v>
       </c>
@@ -8964,26 +8923,31 @@
         <v>0</v>
       </c>
       <c r="K196" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L196">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L196">
+      <c r="M196">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M196">
+      <c r="N196" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N196" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q196" s="20"/>
       <c r="R196" s="10"/>
       <c r="CD196" s="12"/>
     </row>
-    <row r="197" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B197" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C197" s="33"/>
+      <c r="D197" s="16"/>
       <c r="I197" s="10">
         <v>0</v>
       </c>
@@ -8991,19 +8955,19 @@
         <v>0</v>
       </c>
       <c r="K197" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L197">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L197">
+      <c r="M197">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M197">
+      <c r="N197" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N197" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q197" s="20"/>
@@ -9018,19 +8982,19 @@
         <v>0</v>
       </c>
       <c r="K198" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L198">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L198">
+      <c r="M198">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M198">
+      <c r="N198" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N198" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="O198" s="13"/>
@@ -9040,7 +9004,7 @@
     </row>
     <row r="199" spans="1:82" x14ac:dyDescent="0.3">
       <c r="B199" s="19" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C199" s="8"/>
       <c r="D199" s="9"/>
@@ -9051,19 +9015,19 @@
         <v>0</v>
       </c>
       <c r="K199" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L199">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L199">
+      <c r="M199">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M199">
+      <c r="N199" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N199" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P199" s="18"/>
@@ -9073,11 +9037,11 @@
     </row>
     <row r="200" spans="1:82" x14ac:dyDescent="0.3">
       <c r="B200" s="34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C200" s="35">
-        <f>C193</f>
-        <v>2893216</v>
+        <f>C197</f>
+        <v>0</v>
       </c>
       <c r="D200" s="12"/>
       <c r="I200" s="10">
@@ -9087,19 +9051,19 @@
         <v>0</v>
       </c>
       <c r="K200" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L200">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L200">
+      <c r="M200">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M200">
+      <c r="N200" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N200" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q200" s="20"/>
@@ -9108,11 +9072,11 @@
     </row>
     <row r="201" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B201" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C201" s="37">
+        <v>34</v>
+      </c>
+      <c r="C201" s="37" t="e">
         <f>(SUM(M170:M233)/C200)^(1/3)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D201" s="16" t="s">
         <v>14</v>
@@ -9124,19 +9088,19 @@
         <v>0</v>
       </c>
       <c r="K201" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L201">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L201">
+      <c r="M201">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M201">
+      <c r="N201" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N201" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q201" s="20"/>
@@ -9151,19 +9115,19 @@
         <v>0</v>
       </c>
       <c r="K202" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L202">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L202">
+      <c r="M202">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M202">
+      <c r="N202" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N202" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q202" s="20"/>
@@ -9182,29 +9146,28 @@
         <v>0</v>
       </c>
       <c r="K203" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L203">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L203">
+      <c r="M203">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M203">
+      <c r="N203" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N203" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q203" s="20"/>
       <c r="R203" s="10"/>
       <c r="CD203" s="12"/>
     </row>
-    <row r="204" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
-      <c r="C204" s="38"/>
-      <c r="D204" s="38"/>
+      <c r="B204"/>
       <c r="E204" s="38"/>
       <c r="I204" s="10">
         <v>0</v>
@@ -9213,19 +9176,19 @@
         <v>0</v>
       </c>
       <c r="K204" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L204">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L204">
+      <c r="M204">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M204">
+      <c r="N204" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N204" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q204" s="20"/>
@@ -9233,11 +9196,7 @@
       <c r="CD204" s="12"/>
     </row>
     <row r="205" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="B205" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C205" s="39"/>
-      <c r="D205" s="40"/>
+      <c r="B205"/>
       <c r="I205" s="10">
         <v>0</v>
       </c>
@@ -9245,19 +9204,19 @@
         <v>0</v>
       </c>
       <c r="K205" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L205">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L205">
+      <c r="M205">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M205">
+      <c r="N205" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N205" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q205" s="20"/>
@@ -9265,16 +9224,9 @@
       <c r="CD205" s="12"/>
     </row>
     <row r="206" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="B206" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C206" s="35">
-        <f>C192</f>
-        <v>144.13</v>
-      </c>
-      <c r="D206" s="12"/>
-      <c r="E206" s="41"/>
-      <c r="F206" s="42"/>
+      <c r="B206"/>
+      <c r="E206" s="39"/>
+      <c r="F206" s="40"/>
       <c r="I206" s="10">
         <v>0</v>
       </c>
@@ -9282,34 +9234,27 @@
         <v>0</v>
       </c>
       <c r="K206" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L206">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L206">
+      <c r="M206">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M206">
+      <c r="N206" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N206" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q206" s="20"/>
       <c r="R206" s="10"/>
       <c r="CD206" s="12"/>
     </row>
-    <row r="207" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B207" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C207" s="43">
-        <f>C201</f>
-        <v>0</v>
-      </c>
-      <c r="D207" s="16"/>
+    <row r="207" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="B207"/>
       <c r="I207" s="10">
         <v>0</v>
       </c>
@@ -9317,19 +9262,19 @@
         <v>0</v>
       </c>
       <c r="K207" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L207">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L207">
+      <c r="M207">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M207">
+      <c r="N207" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N207" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q207" s="20"/>
@@ -9337,6 +9282,7 @@
       <c r="CD207" s="12"/>
     </row>
     <row r="208" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="B208"/>
       <c r="I208" s="10">
         <v>0</v>
       </c>
@@ -9344,19 +9290,19 @@
         <v>0</v>
       </c>
       <c r="K208" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L208">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L208">
+      <c r="M208">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M208">
+      <c r="N208" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N208" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q208" s="20"/>
@@ -9364,6 +9310,7 @@
       <c r="CD208" s="12"/>
     </row>
     <row r="209" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B209"/>
       <c r="I209" s="10">
         <v>0</v>
       </c>
@@ -9371,19 +9318,19 @@
         <v>0</v>
       </c>
       <c r="K209" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L209">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L209">
+      <c r="M209">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M209">
+      <c r="N209" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N209" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q209" s="20"/>
@@ -9399,19 +9346,19 @@
         <v>0</v>
       </c>
       <c r="K210" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L210">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L210">
+      <c r="M210">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M210">
+      <c r="N210" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N210" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q210" s="20"/>
@@ -9427,19 +9374,19 @@
         <v>0</v>
       </c>
       <c r="K211" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L211">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L211">
+      <c r="M211">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M211">
+      <c r="N211" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N211" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q211" s="20"/>
@@ -9455,19 +9402,19 @@
         <v>0</v>
       </c>
       <c r="K212" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L212">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L212">
+      <c r="M212">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M212">
+      <c r="N212" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N212" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q212" s="20"/>
@@ -9483,19 +9430,19 @@
         <v>0</v>
       </c>
       <c r="K213" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L213">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L213">
+      <c r="M213">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M213">
+      <c r="N213" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N213" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q213" s="20"/>
@@ -9511,19 +9458,19 @@
         <v>0</v>
       </c>
       <c r="K214" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L214">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L214">
+      <c r="M214">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M214">
+      <c r="N214" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N214" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q214" s="20"/>
@@ -9539,19 +9486,19 @@
         <v>0</v>
       </c>
       <c r="K215" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L215">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L215">
+      <c r="M215">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M215">
+      <c r="N215" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N215" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q215" s="20"/>
@@ -9567,19 +9514,19 @@
         <v>0</v>
       </c>
       <c r="K216" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L216">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L216">
+      <c r="M216">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M216">
+      <c r="N216" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N216" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q216" s="20"/>
@@ -9595,19 +9542,19 @@
         <v>0</v>
       </c>
       <c r="K217" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L217">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L217">
+      <c r="M217">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M217">
+      <c r="N217" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N217" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q217" s="20"/>
@@ -9623,19 +9570,19 @@
         <v>0</v>
       </c>
       <c r="K218" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L218">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L218">
+      <c r="M218">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M218">
+      <c r="N218" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N218" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q218" s="20"/>
@@ -9651,19 +9598,19 @@
         <v>0</v>
       </c>
       <c r="K219" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L219">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L219">
+      <c r="M219">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M219">
+      <c r="N219" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N219" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q219" s="20"/>
@@ -9679,19 +9626,19 @@
         <v>0</v>
       </c>
       <c r="K220" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L220">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L220">
+      <c r="M220">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M220">
+      <c r="N220" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N220" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q220" s="20"/>
@@ -9707,19 +9654,19 @@
         <v>0</v>
       </c>
       <c r="K221" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L221">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L221">
+      <c r="M221">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M221">
+      <c r="N221" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N221" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q221" s="20"/>
@@ -9735,19 +9682,19 @@
         <v>0</v>
       </c>
       <c r="K222" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L222">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L222">
+      <c r="M222">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M222">
+      <c r="N222" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N222" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q222" s="20"/>
@@ -9763,19 +9710,19 @@
         <v>0</v>
       </c>
       <c r="K223" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L223">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L223">
+      <c r="M223">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M223">
+      <c r="N223" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N223" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q223" s="20"/>
@@ -9791,19 +9738,19 @@
         <v>0</v>
       </c>
       <c r="K224" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L224">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L224">
+      <c r="M224">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M224">
+      <c r="N224" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N224" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q224" s="20"/>
@@ -9819,19 +9766,19 @@
         <v>0</v>
       </c>
       <c r="K225" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L225">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L225">
+      <c r="M225">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M225">
+      <c r="N225" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N225" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q225" s="20"/>
@@ -9847,19 +9794,19 @@
         <v>0</v>
       </c>
       <c r="K226" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L226">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L226">
+      <c r="M226">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M226">
+      <c r="N226" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N226" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q226" s="20"/>
@@ -9875,19 +9822,19 @@
         <v>0</v>
       </c>
       <c r="K227" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L227">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L227">
+      <c r="M227">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M227">
+      <c r="N227" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N227" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q227" s="20"/>
@@ -9903,19 +9850,19 @@
         <v>0</v>
       </c>
       <c r="K228" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L228">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L228">
+      <c r="M228">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M228">
+      <c r="N228" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N228" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q228" s="20"/>
@@ -9931,19 +9878,19 @@
         <v>0</v>
       </c>
       <c r="K229" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L229">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L229">
+      <c r="M229">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M229">
+      <c r="N229" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N229" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q229" s="20"/>
@@ -9959,19 +9906,19 @@
         <v>0</v>
       </c>
       <c r="K230" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L230">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L230">
+      <c r="M230">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M230">
+      <c r="N230" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N230" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q230" s="20"/>
@@ -9987,19 +9934,19 @@
         <v>0</v>
       </c>
       <c r="K231" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L231">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L231">
+      <c r="M231">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M231">
+      <c r="N231" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N231" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q231" s="20"/>
@@ -10014,19 +9961,19 @@
         <v>0</v>
       </c>
       <c r="K232" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L232">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L232">
+      <c r="M232">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M232">
+      <c r="N232" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N232" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q232" s="20"/>
@@ -10040,20 +9987,20 @@
       <c r="J233" s="15">
         <v>0</v>
       </c>
-      <c r="K233" s="44">
+      <c r="K233" s="41">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L233" s="15">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L233" s="15">
+      <c r="M233" s="15">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M233" s="15">
+      <c r="N233" s="16">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N233" s="16">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q233" s="20"/>
@@ -10072,21 +10019,21 @@
     </row>
     <row r="236" spans="2:82" x14ac:dyDescent="0.3">
       <c r="I236" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="Q236" s="20"/>
       <c r="R236" s="10"/>
       <c r="CD236" s="12"/>
     </row>
     <row r="237" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="I237" s="63"/>
-      <c r="J237" s="52"/>
-      <c r="K237" s="52"/>
-      <c r="L237" s="52"/>
-      <c r="M237" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="N237" s="53">
+      <c r="I237" s="54"/>
+      <c r="J237" s="45"/>
+      <c r="K237" s="45"/>
+      <c r="L237" s="45"/>
+      <c r="M237" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="N237" s="46">
         <f>SUM(N170:N233)</f>
         <v>0</v>
       </c>
@@ -10095,44 +10042,42 @@
       <c r="CD237" s="12"/>
     </row>
     <row r="238" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="I238" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="J238" s="56">
+      <c r="I238" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="J238" s="48">
         <f>C192</f>
-        <v>144.13</v>
-      </c>
-      <c r="K238" s="49">
+        <v>0</v>
+      </c>
+      <c r="K238" s="13">
         <f>C193</f>
-        <v>2893216</v>
-      </c>
-      <c r="L238" s="47"/>
-      <c r="M238" s="47"/>
-      <c r="N238" s="57">
+        <v>0</v>
+      </c>
+      <c r="N238" s="49">
         <f>(K238/50000000)*(J238/23)^3</f>
-        <v>14.239361169084255</v>
+        <v>0</v>
       </c>
       <c r="Q238" s="20"/>
       <c r="R238" s="10"/>
       <c r="CD238" s="12"/>
     </row>
     <row r="239" spans="2:82" x14ac:dyDescent="0.3">
-      <c r="I239" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="J239" s="60">
+      <c r="I239" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="J239" s="51" t="e">
         <f>C201</f>
-        <v>0</v>
-      </c>
-      <c r="K239" s="61">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K239" s="52">
         <f>C200</f>
-        <v>2893216</v>
-      </c>
-      <c r="L239" s="60"/>
-      <c r="M239" s="60"/>
-      <c r="N239" s="62">
+        <v>0</v>
+      </c>
+      <c r="L239" s="51"/>
+      <c r="M239" s="51"/>
+      <c r="N239" s="53" t="e">
         <f>(K239/50000000)*(J239/23)^3</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q239" s="20"/>
       <c r="R239" s="10"/>
@@ -11393,22 +11338,13 @@
     <mergeCell ref="E72:E74"/>
     <mergeCell ref="E153:E155"/>
   </mergeCells>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33 C114 C195" xr:uid="{39C8563F-F6D3-4338-9670-ABB954B6EFC5}">
+      <formula1>$CJ$4:$CJ$6</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDAF98BA-4E08-413B-BB3B-134E01B36E60}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>